--- a/StructureDefinition-splasch-SpokenLanguageComprehension.xlsx
+++ b/StructureDefinition-splasch-SpokenLanguageComprehension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T16:16:20-05:00</t>
+    <t>2021-11-24T17:18:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-splasch-SpokenLanguageComprehension.xlsx
+++ b/StructureDefinition-splasch-SpokenLanguageComprehension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T17:18:22-05:00</t>
+    <t>2021-11-30T03:26:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An exchange of cognitive status data for a patient.</t>
+    <t>An exchange of spoken language comprehension data for a patient.</t>
   </si>
   <si>
     <t>Purpose</t>
